--- a/UK-TopSky/Data/Plugin/TopSky/TopSky_Developer_Guide_Settings.xlsx
+++ b/UK-TopSky/Data/Plugin/TopSky/TopSky_Developer_Guide_Settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juha\Documents\Office Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C4C739-3FF7-4AFE-9243-E2391325F35D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A072E26-689E-4794-83B1-D14985265903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="870" windowWidth="21600" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="210" windowWidth="28530" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="1583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="1587">
   <si>
     <t>Color_Active_Map</t>
   </si>
@@ -4139,9 +4139,6 @@
     <t>Filter warnings based on flight rules</t>
   </si>
   <si>
-    <t>0 (no filtering), 1 (not IFR) or 2 (not VFR)</t>
-  </si>
-  <si>
     <t>System_UseTSAborderHighlightColor</t>
   </si>
   <si>
@@ -4784,13 +4781,28 @@
     <t>Label_ASSR_AcceptPilotSquawk</t>
   </si>
   <si>
-    <t>When enabled, accepts the code squawked by a departed flight as the assigned squawk when no squawk code assignment has been done. This setting does not affect correlation, it only sets whether the squawked code is displayed as ASSR in that case, but for consistency this setting should be set according to the corresponding EuroScope setting in General Settings.</t>
-  </si>
-  <si>
     <t>Sets the time to keep certain track data when an aircraft disconnects to automatically set them back after reconnection. The saved data includes AHDG, ARC, ASP, ASSR, CFL, controller-entered RFL, direct-to point, scratchpad text, controller-entered comms type, contents of flight strip boxes and a small set of plugin specific data.</t>
   </si>
   <si>
     <t>System_TrackData_Time</t>
+  </si>
+  <si>
+    <t>FlightLeg_Refresh_TagItem</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>19999</t>
+  </si>
+  <si>
+    <t>When enabled, accepts the code squawked by a departed flight as the assigned squawk when no squawk code assignment has been done. This setting does not affect correlation, it only sets whether the squawked code is displayed as ASSR in that case.</t>
+  </si>
+  <si>
+    <t>When a flight leg is displayed for a flight without a track label visible, it stays displayed as long as this tag item for the flight in question is shown in the list unless manually toggled off. The default value 10021 means the "List CALLSIGN" item, which is probably the most likely item to be found in any list. To use another item, open the list definition file to find the necessary item number. The tag item needs to be a "List" item from this plugin. The number is the fifth element in a column definition (the column header text is the second element).</t>
+  </si>
+  <si>
+    <t>0 (no filtering), 1 (no alert for IFR) or 2 (no alert for VFR)</t>
   </si>
 </sst>
 </file>
@@ -5899,11 +5911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M742"/>
+  <dimension ref="A1:M743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
+      <pane ySplit="2" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6105,13 +6117,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C10" t="s">
         <v>1473</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1474</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>863</v>
@@ -6136,7 +6148,7 @@
         <v>1330</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C12" t="s">
         <v>161</v>
@@ -7080,7 +7092,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>621</v>
@@ -7089,10 +7101,10 @@
         <v>162</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="M61" s="2"/>
     </row>
@@ -7563,7 +7575,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>621</v>
@@ -7575,13 +7587,13 @@
         <v>806</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>621</v>
@@ -7593,7 +7605,7 @@
         <v>806</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="M86" s="2"/>
     </row>
@@ -8429,7 +8441,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>621</v>
@@ -8438,16 +8450,16 @@
         <v>162</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="M129" s="2"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>621</v>
@@ -8456,10 +8468,10 @@
         <v>162</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="M130" s="2"/>
     </row>
@@ -8888,7 +8900,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>621</v>
@@ -8897,16 +8909,16 @@
         <v>162</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>1454</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>1455</v>
       </c>
       <c r="M152" s="2"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>621</v>
@@ -8915,10 +8927,10 @@
         <v>162</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="M153" s="2"/>
     </row>
@@ -9458,7 +9470,7 @@
         <v>139</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C184" t="s">
         <v>163</v>
@@ -9475,7 +9487,7 @@
         <v>149</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C185" t="s">
         <v>163</v>
@@ -9509,7 +9521,7 @@
         <v>1026</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C187" t="s">
         <v>182</v>
@@ -9529,13 +9541,13 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B188" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C188" t="s">
         <v>1538</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1539</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>173</v>
@@ -9649,10 +9661,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>1371</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>1372</v>
       </c>
       <c r="C195" t="s">
         <v>161</v>
@@ -10065,7 +10077,7 @@
         <v>1032</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C217" t="s">
         <v>169</v>
@@ -10151,10 +10163,10 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>1366</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>1367</v>
       </c>
       <c r="C221" t="s">
         <v>161</v>
@@ -10168,10 +10180,10 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C222" t="s">
         <v>161</v>
@@ -10185,19 +10197,19 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C223" t="s">
         <v>169</v>
       </c>
       <c r="D223" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E223" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F223" s="2">
         <v>1</v>
@@ -10208,19 +10220,19 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C224" t="s">
         <v>169</v>
       </c>
       <c r="D224" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E224" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F224" s="2">
         <v>1</v>
@@ -10231,19 +10243,19 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C225" t="s">
         <v>169</v>
       </c>
       <c r="D225" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E225" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E225" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F225" s="2">
         <v>1</v>
@@ -10254,19 +10266,19 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C226" t="s">
         <v>169</v>
       </c>
       <c r="D226" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E226" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F226" s="2">
         <v>1</v>
@@ -10277,19 +10289,19 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C227" t="s">
         <v>169</v>
       </c>
       <c r="D227" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E227" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F227" s="2">
         <v>1</v>
@@ -10300,19 +10312,19 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C228" t="s">
         <v>169</v>
       </c>
       <c r="D228" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E228" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E228" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F228" s="2">
         <v>1</v>
@@ -10323,13 +10335,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C229" t="s">
         <v>1480</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1481</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>863</v>
@@ -10343,10 +10355,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C230" t="s">
         <v>190</v>
@@ -10707,7 +10719,7 @@
         <v>1065</v>
       </c>
       <c r="C249" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>176</v>
@@ -10830,10 +10842,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>1574</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>1575</v>
       </c>
       <c r="C256" t="s">
         <v>171</v>
@@ -11056,7 +11068,7 @@
         <v>1364</v>
       </c>
       <c r="C270" t="s">
-        <v>1365</v>
+        <v>1586</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>863</v>
@@ -12396,7 +12408,7 @@
         <v>261</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C344" t="s">
         <v>161</v>
@@ -13279,46 +13291,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>306</v>
-      </c>
-      <c r="B390" s="6" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C390" t="s">
-        <v>161</v>
-      </c>
-      <c r="F390" s="2">
-        <v>1</v>
-      </c>
-      <c r="G390" s="2">
-        <v>1</v>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C389" t="s">
+        <v>169</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F389" s="2">
+        <v>10021</v>
+      </c>
+      <c r="G389" s="2">
+        <v>10021</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>544</v>
+        <v>1483</v>
       </c>
       <c r="C391" t="s">
         <v>161</v>
       </c>
       <c r="F391" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G391" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C392" t="s">
         <v>161</v>
@@ -13332,47 +13350,47 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>1548</v>
+        <v>545</v>
       </c>
       <c r="C393" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D393" s="5" t="s">
-        <v>863</v>
+        <v>161</v>
       </c>
       <c r="F393" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G393" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>548</v>
+        <v>1547</v>
       </c>
       <c r="C394" t="s">
-        <v>161</v>
+        <v>1546</v>
+      </c>
+      <c r="D394" s="5" t="s">
+        <v>863</v>
       </c>
       <c r="F394" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G394" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C395" t="s">
         <v>161</v>
@@ -13386,165 +13404,162 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C396" t="s">
-        <v>316</v>
-      </c>
-      <c r="D396" s="5" t="s">
-        <v>863</v>
+        <v>161</v>
       </c>
       <c r="F396" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G396" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C397" t="s">
-        <v>161</v>
+        <v>316</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>863</v>
       </c>
       <c r="F397" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G397" s="2">
-        <v>1</v>
-      </c>
-      <c r="J397" s="2">
-        <v>0</v>
-      </c>
-      <c r="K397" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="C398" t="s">
-        <v>168</v>
-      </c>
-      <c r="D398" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E398" s="5" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F398" s="2">
-        <v>9500</v>
+        <v>1</v>
       </c>
       <c r="G398" s="2">
-        <v>9500</v>
+        <v>1</v>
       </c>
       <c r="J398" s="2">
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="K398" s="2">
-        <v>19500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C399" t="s">
         <v>168</v>
       </c>
       <c r="D399" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E399" s="5" t="s">
         <v>177</v>
       </c>
       <c r="F399" s="2">
-        <v>1000</v>
+        <v>9500</v>
       </c>
       <c r="G399" s="2">
-        <v>1000</v>
+        <v>9500</v>
+      </c>
+      <c r="J399" s="2">
+        <v>19500</v>
+      </c>
+      <c r="K399" s="2">
+        <v>19500</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>881</v>
+        <v>311</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>883</v>
+        <v>549</v>
       </c>
       <c r="C400" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>882</v>
+        <v>188</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F400" s="2">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="G400" s="2">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>329</v>
+        <v>881</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>883</v>
       </c>
       <c r="C401" t="s">
         <v>190</v>
       </c>
       <c r="D401" s="5" t="s">
-        <v>176</v>
+        <v>882</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>421</v>
+        <v>179</v>
       </c>
       <c r="F401" s="2">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="G401" s="2">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C402" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>179</v>
+        <v>421</v>
       </c>
       <c r="F402" s="2">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G402" s="2">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C403" t="s">
         <v>202</v>
@@ -13556,35 +13571,35 @@
         <v>179</v>
       </c>
       <c r="F403" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G403" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C404" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="F404" s="2">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="G404" s="2">
-        <v>2000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C405" t="s">
         <v>168</v>
@@ -13596,18 +13611,18 @@
         <v>260</v>
       </c>
       <c r="F405" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G405" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C406" t="s">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>176</v>
@@ -13616,18 +13631,18 @@
         <v>260</v>
       </c>
       <c r="F406" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G406" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C407" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>176</v>
@@ -13636,35 +13651,35 @@
         <v>260</v>
       </c>
       <c r="F407" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G407" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C408" t="s">
-        <v>202</v>
+        <v>327</v>
       </c>
       <c r="D408" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="F408" s="2">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="G408" s="2">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C409" t="s">
         <v>202</v>
@@ -13676,35 +13691,35 @@
         <v>179</v>
       </c>
       <c r="F409" s="2">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G409" s="2">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C410" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D410" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E410" s="5" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="F410" s="2">
-        <v>1600</v>
+        <v>1.5</v>
       </c>
       <c r="G410" s="2">
-        <v>1600</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C411" t="s">
         <v>168</v>
@@ -13716,75 +13731,75 @@
         <v>260</v>
       </c>
       <c r="F411" s="2">
-        <v>650</v>
+        <v>1600</v>
       </c>
       <c r="G411" s="2">
-        <v>650</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C412" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>421</v>
+        <v>260</v>
       </c>
       <c r="F412" s="2">
-        <v>120</v>
+        <v>650</v>
       </c>
       <c r="G412" s="2">
-        <v>120</v>
+        <v>650</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C413" t="s">
         <v>190</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>179</v>
+        <v>421</v>
       </c>
       <c r="F413" s="2">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G413" s="2">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C414" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E414" s="5" t="s">
         <v>179</v>
       </c>
       <c r="F414" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G414" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C415" t="s">
         <v>202</v>
@@ -13796,15 +13811,15 @@
         <v>179</v>
       </c>
       <c r="F415" s="2">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="G415" s="2">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C416" t="s">
         <v>202</v>
@@ -13816,15 +13831,15 @@
         <v>179</v>
       </c>
       <c r="F416" s="2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="G416" s="2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C417" t="s">
         <v>202</v>
@@ -13836,35 +13851,35 @@
         <v>179</v>
       </c>
       <c r="F417" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G417" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C418" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E418" s="5" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="F418" s="2">
-        <v>1750</v>
+        <v>2</v>
       </c>
       <c r="G418" s="2">
-        <v>1750</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C419" t="s">
         <v>168</v>
@@ -13876,35 +13891,35 @@
         <v>260</v>
       </c>
       <c r="F419" s="2">
-        <v>750</v>
+        <v>1750</v>
       </c>
       <c r="G419" s="2">
-        <v>750</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C420" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E420" s="5" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="F420" s="2">
-        <v>4.75</v>
+        <v>750</v>
       </c>
       <c r="G420" s="2">
-        <v>4.75</v>
+        <v>750</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C421" t="s">
         <v>202</v>
@@ -13916,35 +13931,35 @@
         <v>179</v>
       </c>
       <c r="F421" s="2">
-        <v>2.85</v>
+        <v>4.75</v>
       </c>
       <c r="G421" s="2">
-        <v>2.85</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C422" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="F422" s="2">
-        <v>1800</v>
+        <v>2.85</v>
       </c>
       <c r="G422" s="2">
-        <v>1800</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C423" t="s">
         <v>168</v>
@@ -13956,35 +13971,35 @@
         <v>260</v>
       </c>
       <c r="F423" s="2">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="G423" s="2">
-        <v>800</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C424" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E424" s="5" t="s">
-        <v>421</v>
+        <v>260</v>
       </c>
       <c r="F424" s="2">
-        <v>90</v>
+        <v>800</v>
       </c>
       <c r="G424" s="2">
-        <v>90</v>
+        <v>800</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C425" t="s">
         <v>190</v>
@@ -13996,15 +14011,15 @@
         <v>421</v>
       </c>
       <c r="F425" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G425" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C426" t="s">
         <v>190</v>
@@ -14016,15 +14031,15 @@
         <v>421</v>
       </c>
       <c r="F426" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G426" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C427" t="s">
         <v>190</v>
@@ -14044,7 +14059,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C428" t="s">
         <v>190</v>
@@ -14056,15 +14071,15 @@
         <v>421</v>
       </c>
       <c r="F428" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G428" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C429" t="s">
         <v>190</v>
@@ -14076,55 +14091,55 @@
         <v>421</v>
       </c>
       <c r="F429" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G429" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C430" t="s">
-        <v>346</v>
+        <v>190</v>
       </c>
       <c r="D430" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E430" s="5" t="s">
-        <v>260</v>
+        <v>421</v>
       </c>
       <c r="F430" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G430" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C431" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="D431" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E431" s="5" t="s">
         <v>260</v>
       </c>
       <c r="F431" s="2">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="G431" s="2">
-        <v>1600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C432" t="s">
         <v>168</v>
@@ -14136,75 +14151,75 @@
         <v>260</v>
       </c>
       <c r="F432" s="2">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="G432" s="2">
-        <v>700</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C433" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E433" s="5" t="s">
-        <v>421</v>
+        <v>260</v>
       </c>
       <c r="F433" s="2">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="G433" s="2">
-        <v>70</v>
+        <v>700</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C434" t="s">
-        <v>356</v>
+        <v>190</v>
       </c>
       <c r="D434" s="5" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="E434" s="5" t="s">
-        <v>179</v>
+        <v>421</v>
       </c>
       <c r="F434" s="2">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G434" s="2">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C435" t="s">
-        <v>202</v>
+        <v>356</v>
       </c>
       <c r="D435" s="5" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="E435" s="5" t="s">
         <v>179</v>
       </c>
       <c r="F435" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G435" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C436" t="s">
         <v>202</v>
@@ -14216,21 +14231,21 @@
         <v>179</v>
       </c>
       <c r="F436" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G436" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="C437" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E437" s="5" t="s">
         <v>179</v>
@@ -14244,7 +14259,7 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C438" t="s">
         <v>169</v>
@@ -14256,15 +14271,15 @@
         <v>179</v>
       </c>
       <c r="F438" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G438" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C439" t="s">
         <v>169</v>
@@ -14276,15 +14291,15 @@
         <v>179</v>
       </c>
       <c r="F439" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G439" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C440" t="s">
         <v>169</v>
@@ -14296,35 +14311,35 @@
         <v>179</v>
       </c>
       <c r="F440" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G440" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="C441" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E441" s="5" t="s">
         <v>179</v>
       </c>
       <c r="F441" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G441" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C442" t="s">
         <v>202</v>
@@ -14336,293 +14351,293 @@
         <v>179</v>
       </c>
       <c r="F442" s="2">
+        <v>4</v>
+      </c>
+      <c r="G442" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>358</v>
+      </c>
+      <c r="C443" t="s">
+        <v>202</v>
+      </c>
+      <c r="D443" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E443" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F443" s="2">
         <v>2.5</v>
       </c>
-      <c r="G442" s="2">
+      <c r="G443" s="2">
         <v>2.5</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B444" s="6" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C444" s="19" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D444" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="F444" s="2">
-        <v>0</v>
-      </c>
-      <c r="G444" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B445" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C445" s="19" t="s">
         <v>1404</v>
       </c>
-      <c r="C445" t="s">
-        <v>202</v>
-      </c>
       <c r="D445" s="5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E445" s="5" t="s">
-        <v>1392</v>
+        <v>863</v>
       </c>
       <c r="F445" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G445" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>1394</v>
+        <v>1403</v>
       </c>
       <c r="C446" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>188</v>
+        <v>1390</v>
       </c>
       <c r="E446" s="5" t="s">
-        <v>177</v>
+        <v>1391</v>
       </c>
       <c r="F446" s="2">
-        <v>9500</v>
+        <v>10</v>
       </c>
       <c r="G446" s="2">
-        <v>9500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C447" t="s">
+        <v>168</v>
+      </c>
+      <c r="D447" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E447" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F447" s="2">
+        <v>9500</v>
+      </c>
+      <c r="G447" s="2">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B448" s="6" t="s">
         <v>1395</v>
       </c>
-      <c r="B447" s="6" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C447" t="s">
+      <c r="C448" t="s">
         <v>169</v>
       </c>
-      <c r="D447" s="5" t="s">
+      <c r="D448" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E447" s="5" t="s">
+      <c r="E448" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F447" s="2">
+      <c r="F448" s="2">
         <v>20</v>
       </c>
-      <c r="G447" s="2">
+      <c r="G448" s="2">
         <v>20</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B449" s="6" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C449" t="s">
-        <v>169</v>
-      </c>
-      <c r="D449" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E449" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F449" s="2">
-        <v>4</v>
-      </c>
-      <c r="G449" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>157</v>
+        <v>1539</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>488</v>
+        <v>1540</v>
       </c>
       <c r="C450" t="s">
         <v>169</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>180</v>
+        <v>433</v>
       </c>
       <c r="F450" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G450" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="C451" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E451" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F451" s="2">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G451" s="2">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C452" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="D452" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F452" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G452" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C453" t="s">
-        <v>300</v>
-      </c>
-      <c r="D453" s="5" t="s">
-        <v>863</v>
+        <v>161</v>
       </c>
       <c r="F453" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G453" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1577</v>
+        <v>299</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>1578</v>
+        <v>495</v>
       </c>
       <c r="C454" t="s">
-        <v>161</v>
+        <v>300</v>
+      </c>
+      <c r="D454" s="5" t="s">
+        <v>863</v>
       </c>
       <c r="F454" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G454" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>301</v>
+        <v>1576</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>600</v>
+        <v>1577</v>
       </c>
       <c r="C455" t="s">
         <v>161</v>
       </c>
       <c r="F455" s="2">
+        <v>0</v>
+      </c>
+      <c r="G455" s="2">
         <v>1</v>
-      </c>
-      <c r="G455" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C456" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D456" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E456" s="5" t="s">
-        <v>180</v>
+        <v>600</v>
+      </c>
+      <c r="C456" t="s">
+        <v>161</v>
       </c>
       <c r="F456" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G456" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1579</v>
+        <v>159</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C457" t="s">
-        <v>161</v>
+        <v>634</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D457" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E457" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="F457" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G457" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>153</v>
+        <v>1578</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>485</v>
+        <v>1584</v>
       </c>
       <c r="C458" t="s">
-        <v>241</v>
-      </c>
-      <c r="D458" s="5" t="s">
-        <v>863</v>
+        <v>161</v>
       </c>
       <c r="F458" s="2">
         <v>0</v>
@@ -14633,193 +14648,196 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C459" t="s">
-        <v>161</v>
+        <v>241</v>
+      </c>
+      <c r="D459" s="5" t="s">
+        <v>863</v>
       </c>
       <c r="F459" s="2">
         <v>0</v>
       </c>
       <c r="G459" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1095</v>
+        <v>156</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>1096</v>
+        <v>477</v>
       </c>
       <c r="C460" t="s">
-        <v>190</v>
-      </c>
-      <c r="D460" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E460" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F460" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G460" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1511</v>
+        <v>1095</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>1512</v>
+        <v>1096</v>
       </c>
       <c r="C461" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E461" s="5" t="s">
-        <v>882</v>
+        <v>181</v>
       </c>
       <c r="F461" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G461" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>901</v>
+        <v>1510</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>902</v>
+        <v>1511</v>
       </c>
       <c r="C462" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="D462" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>882</v>
       </c>
       <c r="F462" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G462" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1513</v>
+        <v>901</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>1514</v>
+        <v>902</v>
       </c>
       <c r="C463" t="s">
-        <v>169</v>
-      </c>
-      <c r="D463" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E463" s="5" t="s">
-        <v>882</v>
+        <v>161</v>
       </c>
       <c r="F463" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G463" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>434</v>
+        <v>1512</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>490</v>
+        <v>1513</v>
       </c>
       <c r="C464" t="s">
-        <v>163</v>
-      </c>
-      <c r="F464" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G464" s="2" t="s">
-        <v>1076</v>
+        <v>169</v>
+      </c>
+      <c r="D464" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="F464" s="2">
+        <v>15</v>
+      </c>
+      <c r="G464" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>155</v>
+        <v>434</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>633</v>
+        <v>490</v>
       </c>
       <c r="C465" t="s">
-        <v>169</v>
-      </c>
-      <c r="D465" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E465" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F465" s="2">
-        <v>3</v>
-      </c>
-      <c r="G465" s="2">
-        <v>3</v>
+        <v>163</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>432</v>
+        <v>155</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>489</v>
+        <v>633</v>
       </c>
       <c r="C466" t="s">
         <v>169</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>433</v>
+        <v>178</v>
       </c>
       <c r="E466" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F466" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G466" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>864</v>
+        <v>432</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>865</v>
+        <v>489</v>
       </c>
       <c r="C467" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="D467" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E467" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="F467" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G467" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>150</v>
+        <v>864</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>478</v>
+        <v>865</v>
       </c>
       <c r="C468" t="s">
         <v>161</v>
@@ -14833,39 +14851,33 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>840</v>
+        <v>150</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>842</v>
+        <v>478</v>
       </c>
       <c r="C469" t="s">
-        <v>190</v>
-      </c>
-      <c r="D469" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E469" s="5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F469" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G469" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>643</v>
+        <v>840</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>644</v>
+        <v>842</v>
       </c>
       <c r="C470" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E470" s="5" t="s">
         <v>179</v>
@@ -14879,101 +14891,110 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>430</v>
+        <v>643</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>599</v>
+        <v>644</v>
       </c>
       <c r="C471" t="s">
-        <v>163</v>
-      </c>
-      <c r="H471" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I471" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J471" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="K471" s="2" t="s">
-        <v>431</v>
+        <v>171</v>
+      </c>
+      <c r="D471" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E471" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F471" s="2">
+        <v>5</v>
+      </c>
+      <c r="G471" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>151</v>
+        <v>430</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>483</v>
+        <v>599</v>
       </c>
       <c r="C472" t="s">
-        <v>161</v>
-      </c>
-      <c r="F472" s="2">
-        <v>0</v>
-      </c>
-      <c r="G472" s="2">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="H472" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J472" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="K472" s="2" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C473" t="s">
-        <v>171</v>
-      </c>
-      <c r="D473" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E473" s="5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F473" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G473" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>152</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C474" t="s">
+        <v>171</v>
+      </c>
+      <c r="D474" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F474" s="2">
+        <v>3</v>
+      </c>
+      <c r="G474" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
         <v>154</v>
       </c>
-      <c r="B474" s="6" t="s">
+      <c r="B475" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C475" t="s">
         <v>161</v>
       </c>
-      <c r="F474" s="2">
+      <c r="F475" s="2">
         <v>0</v>
       </c>
-      <c r="G474" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>359</v>
-      </c>
-      <c r="B476" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="C476" t="s">
-        <v>161</v>
-      </c>
-      <c r="F476" s="2">
+      <c r="G475" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B477" s="6" t="s">
         <v>635</v>
@@ -14987,7 +15008,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B478" s="6" t="s">
         <v>635</v>
@@ -15001,7 +15022,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>635</v>
@@ -15015,7 +15036,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>635</v>
@@ -15029,7 +15050,7 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>635</v>
@@ -15043,7 +15064,7 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B482" s="6" t="s">
         <v>635</v>
@@ -15057,7 +15078,7 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B483" s="6" t="s">
         <v>635</v>
@@ -15071,7 +15092,7 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1542</v>
+        <v>366</v>
       </c>
       <c r="B484" s="6" t="s">
         <v>635</v>
@@ -15085,7 +15106,7 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B485" s="6" t="s">
         <v>635</v>
@@ -15099,7 +15120,7 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B486" s="6" t="s">
         <v>635</v>
@@ -15113,7 +15134,7 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B487" s="6" t="s">
         <v>635</v>
@@ -15127,7 +15148,7 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B488" s="6" t="s">
         <v>635</v>
@@ -15139,40 +15160,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C489" t="s">
+        <v>161</v>
+      </c>
+      <c r="F489" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
         <v>420</v>
       </c>
-      <c r="B490" s="6" t="s">
+      <c r="B491" s="6" t="s">
         <v>1234</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C491" t="s">
         <v>161</v>
       </c>
-      <c r="F490" s="2">
+      <c r="F491" s="2">
         <v>0</v>
       </c>
-      <c r="G490" s="2">
+      <c r="G491" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>367</v>
-      </c>
-      <c r="B492" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C492" t="s">
-        <v>161</v>
-      </c>
-      <c r="G492" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B493" s="6" t="s">
         <v>636</v>
@@ -15186,7 +15207,7 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B494" s="6" t="s">
         <v>636</v>
@@ -15195,12 +15216,12 @@
         <v>161</v>
       </c>
       <c r="G494" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B495" s="6" t="s">
         <v>636</v>
@@ -15209,12 +15230,12 @@
         <v>161</v>
       </c>
       <c r="G495" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B496" s="6" t="s">
         <v>636</v>
@@ -15223,12 +15244,12 @@
         <v>161</v>
       </c>
       <c r="G496" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B497" s="6" t="s">
         <v>636</v>
@@ -15237,12 +15258,12 @@
         <v>161</v>
       </c>
       <c r="G497" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B498" s="6" t="s">
         <v>636</v>
@@ -15256,7 +15277,7 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B499" s="6" t="s">
         <v>636</v>
@@ -15270,7 +15291,7 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B500" s="6" t="s">
         <v>636</v>
@@ -15279,12 +15300,12 @@
         <v>161</v>
       </c>
       <c r="G500" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B501" s="6" t="s">
         <v>636</v>
@@ -15298,7 +15319,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B502" s="6" t="s">
         <v>636</v>
@@ -15307,12 +15328,12 @@
         <v>161</v>
       </c>
       <c r="G502" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B503" s="6" t="s">
         <v>636</v>
@@ -15321,12 +15342,12 @@
         <v>161</v>
       </c>
       <c r="G503" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B504" s="6" t="s">
         <v>636</v>
@@ -15340,7 +15361,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B505" s="6" t="s">
         <v>636</v>
@@ -15354,7 +15375,7 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B506" s="6" t="s">
         <v>636</v>
@@ -15366,23 +15387,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>382</v>
-      </c>
-      <c r="B508" s="6" t="s">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>381</v>
+      </c>
+      <c r="B507" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C508" t="s">
+      <c r="C507" t="s">
         <v>161</v>
       </c>
-      <c r="G508" s="2">
-        <v>0</v>
+      <c r="G507" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B509" s="6" t="s">
         <v>636</v>
@@ -15396,7 +15417,7 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B510" s="6" t="s">
         <v>636</v>
@@ -15405,12 +15426,12 @@
         <v>161</v>
       </c>
       <c r="G510" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B511" s="6" t="s">
         <v>636</v>
@@ -15419,12 +15440,12 @@
         <v>161</v>
       </c>
       <c r="G511" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B512" s="6" t="s">
         <v>636</v>
@@ -15433,12 +15454,12 @@
         <v>161</v>
       </c>
       <c r="G512" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B513" s="6" t="s">
         <v>636</v>
@@ -15447,12 +15468,12 @@
         <v>161</v>
       </c>
       <c r="G513" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B514" s="6" t="s">
         <v>636</v>
@@ -15466,7 +15487,7 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B515" s="6" t="s">
         <v>636</v>
@@ -15480,7 +15501,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B516" s="6" t="s">
         <v>636</v>
@@ -15489,12 +15510,12 @@
         <v>161</v>
       </c>
       <c r="G516" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B517" s="6" t="s">
         <v>636</v>
@@ -15508,7 +15529,7 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B518" s="6" t="s">
         <v>636</v>
@@ -15517,12 +15538,12 @@
         <v>161</v>
       </c>
       <c r="G518" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B519" s="6" t="s">
         <v>636</v>
@@ -15531,12 +15552,12 @@
         <v>161</v>
       </c>
       <c r="G519" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B520" s="6" t="s">
         <v>636</v>
@@ -15550,7 +15571,7 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B521" s="6" t="s">
         <v>636</v>
@@ -15562,23 +15583,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>396</v>
-      </c>
-      <c r="B523" s="6" t="s">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>395</v>
+      </c>
+      <c r="B522" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C523" t="s">
+      <c r="C522" t="s">
         <v>161</v>
       </c>
-      <c r="G523" s="2">
-        <v>0</v>
+      <c r="G522" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B524" s="6" t="s">
         <v>636</v>
@@ -15592,7 +15613,7 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B525" s="6" t="s">
         <v>636</v>
@@ -15601,12 +15622,12 @@
         <v>161</v>
       </c>
       <c r="G525" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B526" s="6" t="s">
         <v>636</v>
@@ -15615,12 +15636,12 @@
         <v>161</v>
       </c>
       <c r="G526" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B527" s="6" t="s">
         <v>636</v>
@@ -15629,12 +15650,12 @@
         <v>161</v>
       </c>
       <c r="G527" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B528" s="6" t="s">
         <v>636</v>
@@ -15643,12 +15664,12 @@
         <v>161</v>
       </c>
       <c r="G528" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B529" s="6" t="s">
         <v>636</v>
@@ -15662,7 +15683,7 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B530" s="6" t="s">
         <v>636</v>
@@ -15676,7 +15697,7 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B531" s="6" t="s">
         <v>636</v>
@@ -15685,12 +15706,12 @@
         <v>161</v>
       </c>
       <c r="G531" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B532" s="6" t="s">
         <v>636</v>
@@ -15704,7 +15725,7 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B533" s="6" t="s">
         <v>636</v>
@@ -15713,12 +15734,12 @@
         <v>161</v>
       </c>
       <c r="G533" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B534" s="6" t="s">
         <v>636</v>
@@ -15727,12 +15748,12 @@
         <v>161</v>
       </c>
       <c r="G534" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B535" s="6" t="s">
         <v>636</v>
@@ -15746,7 +15767,7 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B536" s="6" t="s">
         <v>636</v>
@@ -15758,23 +15779,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>410</v>
-      </c>
-      <c r="B538" s="6" t="s">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>409</v>
+      </c>
+      <c r="B537" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C537" t="s">
         <v>161</v>
       </c>
-      <c r="G538" s="2">
-        <v>0</v>
+      <c r="G537" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B539" s="6" t="s">
         <v>636</v>
@@ -15788,7 +15809,7 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B540" s="6" t="s">
         <v>636</v>
@@ -15797,12 +15818,12 @@
         <v>161</v>
       </c>
       <c r="G540" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B541" s="6" t="s">
         <v>636</v>
@@ -15811,12 +15832,12 @@
         <v>161</v>
       </c>
       <c r="G541" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B542" s="6" t="s">
         <v>636</v>
@@ -15825,12 +15846,12 @@
         <v>161</v>
       </c>
       <c r="G542" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B543" s="6" t="s">
         <v>636</v>
@@ -15839,12 +15860,12 @@
         <v>161</v>
       </c>
       <c r="G543" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B544" s="6" t="s">
         <v>636</v>
@@ -15858,7 +15879,7 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B545" s="6" t="s">
         <v>636</v>
@@ -15872,7 +15893,7 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B546" s="6" t="s">
         <v>636</v>
@@ -15881,12 +15902,12 @@
         <v>161</v>
       </c>
       <c r="G546" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B547" s="6" t="s">
         <v>636</v>
@@ -15898,38 +15919,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>444</v>
-      </c>
-      <c r="B549" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C549" t="s">
-        <v>202</v>
-      </c>
-      <c r="D549" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E549" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F549" s="2">
-        <v>16</v>
-      </c>
-      <c r="G549" s="2">
-        <v>20</v>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>419</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C548" t="s">
+        <v>161</v>
+      </c>
+      <c r="G548" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C550" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="D550" s="5" t="s">
         <v>176</v>
@@ -15938,138 +15950,138 @@
         <v>179</v>
       </c>
       <c r="F550" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G550" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B551" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C551" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="D551" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E551" s="5" t="s">
         <v>179</v>
       </c>
       <c r="F551" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G551" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>446</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C552" t="s">
+        <v>202</v>
+      </c>
+      <c r="D552" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E552" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F552" s="2">
+        <v>2</v>
+      </c>
+      <c r="G552" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
         <v>645</v>
       </c>
-      <c r="B552" s="6" t="s">
+      <c r="B553" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C552" t="s">
+      <c r="C553" t="s">
         <v>161</v>
       </c>
-      <c r="F552" s="2">
+      <c r="F553" s="2">
         <v>0</v>
       </c>
-      <c r="G552" s="2">
+      <c r="G553" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>602</v>
-      </c>
-      <c r="B554" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C554" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D554" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E554" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F554" s="2">
-        <v>10</v>
-      </c>
-      <c r="G554" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B555" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="C555" t="s">
-        <v>240</v>
+        <v>603</v>
+      </c>
+      <c r="C555" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D555" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E555" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="F555" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G555" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>899</v>
+        <v>604</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>900</v>
+        <v>601</v>
       </c>
       <c r="C556" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="F556" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G556" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1077</v>
+        <v>899</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>1087</v>
+        <v>900</v>
       </c>
       <c r="C557" t="s">
-        <v>605</v>
-      </c>
-      <c r="D557" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E557" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F557" s="2">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="G557" s="2">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C558" t="s">
         <v>605</v>
@@ -16078,21 +16090,21 @@
         <v>1083</v>
       </c>
       <c r="E558" s="5" t="s">
-        <v>1079</v>
+        <v>181</v>
       </c>
       <c r="F558" s="2">
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="G558" s="2">
-        <v>410</v>
+        <v>510</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B559" s="6" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C559" t="s">
         <v>605</v>
@@ -16104,18 +16116,18 @@
         <v>1079</v>
       </c>
       <c r="F559" s="2">
-        <v>-1</v>
+        <v>410</v>
       </c>
       <c r="G559" s="2">
-        <v>-1</v>
+        <v>410</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B560" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C560" t="s">
         <v>605</v>
@@ -16124,89 +16136,89 @@
         <v>1083</v>
       </c>
       <c r="E560" s="5" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F560" s="2">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="G560" s="2">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="B561" s="6" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="C561" t="s">
-        <v>1100</v>
+        <v>605</v>
+      </c>
+      <c r="D561" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E561" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F561" s="2">
+        <v>5</v>
+      </c>
+      <c r="G561" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C562" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B564" s="6" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C564" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F564" s="2">
-        <v>1</v>
-      </c>
-      <c r="G564" s="2">
-        <v>1</v>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1112</v>
+        <v>1200</v>
       </c>
       <c r="B565" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C565" t="s">
-        <v>190</v>
-      </c>
-      <c r="D565" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E565" s="5" t="s">
-        <v>179</v>
+        <v>1066</v>
+      </c>
+      <c r="C565" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F565" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G565" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>988</v>
+        <v>1112</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="C566" s="6" t="s">
-        <v>169</v>
+        <v>1113</v>
+      </c>
+      <c r="C566" t="s">
+        <v>190</v>
       </c>
       <c r="D566" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E566" s="5" t="s">
         <v>179</v>
@@ -16220,10 +16232,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B567" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C567" s="6" t="s">
         <v>169</v>
@@ -16243,107 +16255,113 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C568" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="E568" s="5" t="s">
         <v>179</v>
       </c>
       <c r="F568" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G568" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>647</v>
+        <v>987</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>648</v>
+        <v>992</v>
       </c>
       <c r="C569" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="D569" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E569" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="F569" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G569" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1451</v>
+        <v>647</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>1452</v>
+        <v>648</v>
       </c>
       <c r="C570" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F570" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G570" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>611</v>
+        <v>1450</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>612</v>
+        <v>1451</v>
       </c>
       <c r="C571" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D571" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E571" s="5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F571" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G571" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="C572" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="D572" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="F572" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G572" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1129</v>
+        <v>637</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>1130</v>
+        <v>638</v>
       </c>
       <c r="C573" s="6" t="s">
         <v>161</v>
@@ -16357,33 +16375,27 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C574" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D574" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E574" s="5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F574" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G574" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>639</v>
+        <v>1127</v>
       </c>
       <c r="B575" s="6" t="s">
-        <v>1115</v>
+        <v>1128</v>
       </c>
       <c r="C575" s="6" t="s">
         <v>169</v>
@@ -16395,18 +16407,18 @@
         <v>179</v>
       </c>
       <c r="F575" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G575" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C576" s="6" t="s">
         <v>169</v>
@@ -16418,87 +16430,87 @@
         <v>179</v>
       </c>
       <c r="F576" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G576" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="B577" s="6" t="s">
-        <v>609</v>
+        <v>1114</v>
       </c>
       <c r="C577" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D577" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E577" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F577" s="2">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="G577" s="2">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1379</v>
+        <v>608</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>1402</v>
+        <v>609</v>
       </c>
       <c r="C578" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D578" s="5" t="s">
-        <v>1403</v>
+        <v>174</v>
       </c>
       <c r="E578" s="5" t="s">
         <v>181</v>
       </c>
       <c r="F578" s="2">
-        <v>24</v>
+        <v>999</v>
       </c>
       <c r="G578" s="2">
-        <v>24</v>
+        <v>999</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B579" s="6" t="s">
-        <v>1381</v>
+        <v>1401</v>
       </c>
       <c r="C579" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D579" s="5" t="s">
-        <v>174</v>
+        <v>1402</v>
       </c>
       <c r="E579" s="5" t="s">
         <v>181</v>
       </c>
       <c r="F579" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G579" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C580" s="6" t="s">
         <v>169</v>
@@ -16510,18 +16522,18 @@
         <v>181</v>
       </c>
       <c r="F580" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G580" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B581" s="6" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C581" s="6" t="s">
         <v>169</v>
@@ -16533,18 +16545,18 @@
         <v>181</v>
       </c>
       <c r="F581" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G581" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B582" s="6" t="s">
         <v>1385</v>
-      </c>
-      <c r="B582" s="6" t="s">
-        <v>1387</v>
       </c>
       <c r="C582" s="6" t="s">
         <v>169</v>
@@ -16556,196 +16568,196 @@
         <v>181</v>
       </c>
       <c r="F582" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G582" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>613</v>
+        <v>1384</v>
       </c>
       <c r="B583" s="6" t="s">
-        <v>616</v>
+        <v>1386</v>
       </c>
       <c r="C583" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D583" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E583" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F583" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G583" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1027</v>
+        <v>613</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>1090</v>
+        <v>616</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D584" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E584" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F584" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G584" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1088</v>
+        <v>1027</v>
       </c>
       <c r="B585" s="6" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C585" s="6" t="s">
-        <v>161</v>
+        <v>171</v>
+      </c>
+      <c r="D585" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E585" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F585" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G585" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B586" s="6" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C586" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D586" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E586" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F586" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G586" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>614</v>
+        <v>1091</v>
       </c>
       <c r="B587" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C587" t="s">
-        <v>605</v>
+        <v>1092</v>
+      </c>
+      <c r="C587" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E587" s="5" t="s">
-        <v>607</v>
+        <v>181</v>
       </c>
       <c r="F587" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G587" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="C588" s="6" t="s">
-        <v>169</v>
+        <v>606</v>
+      </c>
+      <c r="C588" t="s">
+        <v>605</v>
       </c>
       <c r="D588" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E588" s="5" t="s">
-        <v>181</v>
+        <v>607</v>
       </c>
       <c r="F588" s="2">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="G588" s="2">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1097</v>
+        <v>615</v>
       </c>
       <c r="B589" s="6" t="s">
-        <v>1098</v>
+        <v>610</v>
       </c>
       <c r="C589" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D589" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E589" s="5" t="s">
         <v>181</v>
       </c>
       <c r="F589" s="2">
-        <v>200</v>
+        <v>999</v>
       </c>
       <c r="G589" s="2">
-        <v>200</v>
+        <v>999</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>618</v>
+        <v>1097</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>620</v>
+        <v>1098</v>
       </c>
       <c r="C590" s="6" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="D590" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E590" s="5" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="F590" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G590" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B591" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C591" s="6" t="s">
         <v>202</v>
@@ -16757,38 +16769,47 @@
         <v>260</v>
       </c>
       <c r="F591" s="2">
+        <v>250</v>
+      </c>
+      <c r="G591" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>617</v>
+      </c>
+      <c r="B592" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C592" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D592" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E592" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F592" s="2">
         <v>10</v>
       </c>
-      <c r="G591" s="2">
+      <c r="G592" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C592" s="6"/>
-    </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B593" s="6" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C593" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D593" s="5" t="s">
-        <v>863</v>
-      </c>
+      <c r="C593" s="6"/>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1203</v>
+        <v>1184</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>1204</v>
+        <v>1185</v>
       </c>
       <c r="C594" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D594" s="5" t="s">
         <v>863</v>
@@ -16796,13 +16817,13 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C595" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D595" s="5" t="s">
         <v>863</v>
@@ -16810,13 +16831,13 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1485</v>
+        <v>1205</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>1486</v>
+        <v>1206</v>
       </c>
       <c r="C596" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D596" s="5" t="s">
         <v>863</v>
@@ -16824,13 +16845,13 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="B597" s="6" t="s">
-        <v>1500</v>
+        <v>1485</v>
       </c>
       <c r="C597" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D597" s="5" t="s">
         <v>863</v>
@@ -16838,13 +16859,13 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1192</v>
+        <v>1498</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>1193</v>
+        <v>1499</v>
       </c>
       <c r="C598" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D598" s="5" t="s">
         <v>863</v>
@@ -16852,13 +16873,13 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C599" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D599" s="5" t="s">
         <v>863</v>
@@ -16866,13 +16887,13 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1178</v>
+        <v>1194</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="C600" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D600" s="5" t="s">
         <v>863</v>
@@ -16880,10 +16901,10 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1507</v>
+        <v>1178</v>
       </c>
       <c r="B601" s="6" t="s">
-        <v>1508</v>
+        <v>1179</v>
       </c>
       <c r="C601" t="s">
         <v>1491</v>
@@ -16894,13 +16915,13 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1176</v>
+        <v>1506</v>
       </c>
       <c r="B602" s="6" t="s">
-        <v>1177</v>
+        <v>1507</v>
       </c>
       <c r="C602" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="D602" s="5" t="s">
         <v>863</v>
@@ -16908,13 +16929,13 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1487</v>
+        <v>1176</v>
       </c>
       <c r="B603" s="6" t="s">
-        <v>1488</v>
+        <v>1177</v>
       </c>
       <c r="C603" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="D603" s="5" t="s">
         <v>863</v>
@@ -16922,10 +16943,10 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1201</v>
+        <v>1486</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>1202</v>
+        <v>1487</v>
       </c>
       <c r="C604" t="s">
         <v>1492</v>
@@ -16936,13 +16957,13 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1172</v>
+        <v>1201</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>1173</v>
+        <v>1202</v>
       </c>
       <c r="C605" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D605" s="5" t="s">
         <v>863</v>
@@ -16950,13 +16971,13 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C606" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D606" s="5" t="s">
         <v>863</v>
@@ -16964,13 +16985,13 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1501</v>
+        <v>1174</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>1502</v>
+        <v>1175</v>
       </c>
       <c r="C607" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D607" s="5" t="s">
         <v>863</v>
@@ -16978,13 +16999,13 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="B608" s="6" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="C608" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D608" s="5" t="s">
         <v>863</v>
@@ -16992,13 +17013,13 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1182</v>
+        <v>1494</v>
       </c>
       <c r="B609" s="6" t="s">
-        <v>1183</v>
+        <v>1495</v>
       </c>
       <c r="C609" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D609" s="5" t="s">
         <v>863</v>
@@ -17006,10 +17027,10 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1509</v>
+        <v>1182</v>
       </c>
       <c r="B610" s="6" t="s">
-        <v>1510</v>
+        <v>1183</v>
       </c>
       <c r="C610" t="s">
         <v>1491</v>
@@ -17020,13 +17041,13 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1168</v>
+        <v>1508</v>
       </c>
       <c r="B611" s="6" t="s">
-        <v>1169</v>
+        <v>1509</v>
       </c>
       <c r="C611" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="D611" s="5" t="s">
         <v>863</v>
@@ -17034,10 +17055,10 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1489</v>
+        <v>1168</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>1490</v>
+        <v>1169</v>
       </c>
       <c r="C612" t="s">
         <v>1491</v>
@@ -17048,13 +17069,13 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="B613" s="6" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="C613" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="D613" s="5" t="s">
         <v>863</v>
@@ -17062,41 +17083,41 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1180</v>
+        <v>1496</v>
       </c>
       <c r="B614" s="6" t="s">
-        <v>1181</v>
+        <v>1497</v>
       </c>
       <c r="C614" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D614" s="5" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B616" s="6" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D616" s="5" t="s">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B615" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D615" s="5" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="B617" s="6" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="C617" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D617" s="5" t="s">
         <v>863</v>
@@ -17104,13 +17125,13 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1166</v>
+        <v>1196</v>
       </c>
       <c r="B618" s="6" t="s">
-        <v>1167</v>
+        <v>1197</v>
       </c>
       <c r="C618" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D618" s="5" t="s">
         <v>863</v>
@@ -17118,13 +17139,13 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1373</v>
+        <v>1166</v>
       </c>
       <c r="B619" s="6" t="s">
-        <v>1374</v>
+        <v>1167</v>
       </c>
       <c r="C619" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D619" s="5" t="s">
         <v>863</v>
@@ -17132,13 +17153,13 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1190</v>
+        <v>1372</v>
       </c>
       <c r="B620" s="6" t="s">
-        <v>1191</v>
+        <v>1373</v>
       </c>
       <c r="C620" t="s">
-        <v>1549</v>
+        <v>1493</v>
       </c>
       <c r="D620" s="5" t="s">
         <v>863</v>
@@ -17146,13 +17167,13 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
       <c r="B621" s="6" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
       <c r="C621" t="s">
-        <v>1494</v>
+        <v>1548</v>
       </c>
       <c r="D621" s="5" t="s">
         <v>863</v>
@@ -17160,13 +17181,13 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1503</v>
+        <v>1208</v>
       </c>
       <c r="B622" s="6" t="s">
-        <v>1504</v>
+        <v>1209</v>
       </c>
       <c r="C622" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D622" s="5" t="s">
         <v>863</v>
@@ -17174,13 +17195,13 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B623" s="6" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C623" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D623" s="5" t="s">
         <v>863</v>
@@ -17188,13 +17209,13 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1198</v>
+        <v>1504</v>
       </c>
       <c r="B624" s="6" t="s">
-        <v>1199</v>
+        <v>1505</v>
       </c>
       <c r="C624" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D624" s="5" t="s">
         <v>863</v>
@@ -17202,13 +17223,13 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1170</v>
+        <v>1198</v>
       </c>
       <c r="B625" s="6" t="s">
-        <v>1171</v>
+        <v>1199</v>
       </c>
       <c r="C625" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D625" s="5" t="s">
         <v>863</v>
@@ -17216,271 +17237,262 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="B626" s="6" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="C626" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D626" s="5" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B628" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C628" t="s">
-        <v>163</v>
-      </c>
-      <c r="F628" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G628" s="2" t="s">
-        <v>1237</v>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B627" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D627" s="5" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B629" s="6" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C629" t="s">
-        <v>169</v>
-      </c>
-      <c r="D629" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E629" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F629" s="2">
-        <v>11</v>
-      </c>
-      <c r="G629" s="2">
-        <v>11</v>
+        <v>163</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G629" s="2" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B630" s="6" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C630" t="s">
-        <v>1243</v>
+        <v>169</v>
       </c>
       <c r="D630" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="F630" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G630" s="2" t="s">
-        <v>1242</v>
+        <v>174</v>
+      </c>
+      <c r="E630" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F630" s="2">
+        <v>11</v>
+      </c>
+      <c r="G630" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>993</v>
+        <v>1240</v>
       </c>
       <c r="B631" s="6" t="s">
-        <v>994</v>
+        <v>1241</v>
       </c>
       <c r="C631" t="s">
-        <v>161</v>
-      </c>
-      <c r="F631" s="2">
-        <v>1</v>
-      </c>
-      <c r="G631" s="2">
-        <v>1</v>
+        <v>1243</v>
+      </c>
+      <c r="D631" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G631" s="2" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>675</v>
+        <v>993</v>
       </c>
       <c r="B632" s="6" t="s">
-        <v>676</v>
+        <v>994</v>
       </c>
       <c r="C632" t="s">
         <v>161</v>
       </c>
       <c r="F632" s="2">
+        <v>1</v>
+      </c>
+      <c r="G632" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>675</v>
+      </c>
+      <c r="B633" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C633" t="s">
+        <v>161</v>
+      </c>
+      <c r="F633" s="2">
         <v>0</v>
       </c>
-      <c r="G632" s="2">
+      <c r="G633" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
-        <v>755</v>
-      </c>
-      <c r="B634" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="C634" t="s">
-        <v>163</v>
-      </c>
-      <c r="F634" s="18" t="s">
-        <v>1517</v>
-      </c>
-      <c r="G634" s="18" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C635" t="s">
         <v>163</v>
       </c>
-      <c r="F635" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="G635" s="2" t="s">
-        <v>791</v>
+      <c r="F635" s="18" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G635" s="18" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B636" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C636" t="s">
         <v>163</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G636" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B637" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C637" t="s">
         <v>163</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G637" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B638" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C638" t="s">
         <v>163</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G638" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>802</v>
+        <v>759</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>1576</v>
+        <v>770</v>
       </c>
       <c r="C639" t="s">
         <v>163</v>
       </c>
+      <c r="F639" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G639" s="2" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>802</v>
+      </c>
+      <c r="B640" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C640" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
         <v>1109</v>
       </c>
-      <c r="B640" s="6" t="s">
+      <c r="B641" s="6" t="s">
         <v>1110</v>
       </c>
-      <c r="C640" t="s">
+      <c r="C641" t="s">
         <v>161</v>
       </c>
-      <c r="F640" s="2">
+      <c r="F641" s="2">
         <v>0</v>
       </c>
-      <c r="G640" s="2">
+      <c r="G641" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B642" s="6" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C642" t="s">
-        <v>163</v>
-      </c>
-      <c r="F642" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G642" s="2" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>1523</v>
+        <v>1530</v>
       </c>
       <c r="C643" t="s">
-        <v>169</v>
-      </c>
-      <c r="D643" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E643" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F643" s="2">
-        <v>8</v>
-      </c>
-      <c r="G643" s="2">
-        <v>8</v>
+        <v>163</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G643" s="2" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B644" s="6" t="s">
         <v>1522</v>
-      </c>
-      <c r="B644" s="6" t="s">
-        <v>1524</v>
       </c>
       <c r="C644" t="s">
         <v>169</v>
@@ -17492,18 +17504,18 @@
         <v>179</v>
       </c>
       <c r="F644" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G644" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C645" t="s">
         <v>169</v>
@@ -17515,18 +17527,18 @@
         <v>179</v>
       </c>
       <c r="F645" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G645" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B646" s="6" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C646" t="s">
         <v>169</v>
@@ -17538,336 +17550,336 @@
         <v>179</v>
       </c>
       <c r="F646" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G646" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B647" s="6" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C647" t="s">
+        <v>169</v>
+      </c>
+      <c r="D647" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E647" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F647" s="2">
+        <v>22</v>
+      </c>
+      <c r="G647" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B648" s="6" t="s">
         <v>1529</v>
       </c>
-      <c r="B647" s="6" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C647" t="s">
+      <c r="C648" t="s">
         <v>161</v>
       </c>
-      <c r="F647" s="2">
+      <c r="F648" s="2">
         <v>1</v>
       </c>
-      <c r="G647" s="2">
+      <c r="G648" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
-        <v>761</v>
-      </c>
-      <c r="B649" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C649" t="s">
-        <v>163</v>
-      </c>
-      <c r="F649" s="18" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G649" s="18" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C650" t="s">
         <v>163</v>
       </c>
-      <c r="F650" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="G650" s="2" t="s">
-        <v>795</v>
+      <c r="F650" s="18" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G650" s="18" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="B651" s="6" t="s">
-        <v>1233</v>
+        <v>765</v>
       </c>
       <c r="C651" t="s">
         <v>163</v>
       </c>
-      <c r="H651" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="I651" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="J651" s="2">
-        <v>6443</v>
-      </c>
-      <c r="K651" s="2" t="s">
-        <v>679</v>
+      <c r="F651" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G651" s="2" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B652" s="6" t="s">
-        <v>766</v>
+        <v>1233</v>
       </c>
       <c r="C652" t="s">
         <v>163</v>
       </c>
-      <c r="F652" s="2" t="s">
+      <c r="H652" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="I652" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="J652" s="2">
+        <v>6443</v>
+      </c>
+      <c r="K652" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>763</v>
+      </c>
+      <c r="B653" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C653" t="s">
+        <v>163</v>
+      </c>
+      <c r="F653" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="G652" s="2" t="s">
+      <c r="G653" s="2" t="s">
         <v>796</v>
-      </c>
-    </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
-        <v>771</v>
-      </c>
-      <c r="B654" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="C654" t="s">
-        <v>163</v>
-      </c>
-      <c r="F654" s="18" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G654" s="18" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B655" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C655" t="s">
         <v>163</v>
       </c>
-      <c r="F655" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="G655" s="2" t="s">
-        <v>797</v>
+      <c r="F655" s="18" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G655" s="18" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B656" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C656" t="s">
         <v>163</v>
       </c>
       <c r="F656" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G656" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B657" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C657" t="s">
         <v>163</v>
       </c>
       <c r="F657" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G657" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B658" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C658" t="s">
         <v>163</v>
       </c>
       <c r="F658" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="G658" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>775</v>
+      </c>
+      <c r="B659" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="C659" t="s">
+        <v>163</v>
+      </c>
+      <c r="F659" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="G658" s="2" t="s">
+      <c r="G659" s="2" t="s">
         <v>800</v>
-      </c>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
-        <v>781</v>
-      </c>
-      <c r="B660" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="C660" t="s">
-        <v>163</v>
-      </c>
-      <c r="F660" s="18" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G660" s="18" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C661" t="s">
         <v>163</v>
       </c>
-      <c r="F661" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="G661" s="2" t="s">
-        <v>801</v>
+      <c r="F661" s="18" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G661" s="18" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B662" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C662" t="s">
         <v>163</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="G662" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B663" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C663" t="s">
         <v>163</v>
       </c>
       <c r="F663" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G663" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B664" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C664" t="s">
         <v>163</v>
       </c>
       <c r="F664" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="G664" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>785</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C665" t="s">
+        <v>163</v>
+      </c>
+      <c r="F665" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="G664" s="2" t="s">
+      <c r="G665" s="2" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B667" s="6" t="s">
         <v>1515</v>
       </c>
-      <c r="B666" s="6" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C666" t="s">
+      <c r="C667" t="s">
         <v>163</v>
       </c>
-      <c r="F666" s="18" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G666" s="18" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
-        <v>845</v>
-      </c>
-      <c r="B668" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="C668" t="s">
-        <v>161</v>
-      </c>
-      <c r="F668" s="2">
-        <v>1</v>
-      </c>
-      <c r="G668" s="2">
-        <v>1</v>
+      <c r="F667" s="18" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G667" s="18" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="B669" s="6" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C669" t="s">
-        <v>812</v>
-      </c>
-      <c r="D669" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E669" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="F669" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="G669" s="2" t="s">
-        <v>831</v>
+        <v>161</v>
+      </c>
+      <c r="F669" s="2">
+        <v>1</v>
+      </c>
+      <c r="G669" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="B670" s="6" t="s">
-        <v>1068</v>
+        <v>878</v>
       </c>
       <c r="C670" t="s">
         <v>812</v>
@@ -17879,7 +17891,7 @@
         <v>814</v>
       </c>
       <c r="F670" s="2" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="G670" s="2" t="s">
         <v>831</v>
@@ -17887,10 +17899,10 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>1067</v>
+        <v>846</v>
       </c>
       <c r="B671" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C671" t="s">
         <v>812</v>
@@ -17902,18 +17914,18 @@
         <v>814</v>
       </c>
       <c r="F671" s="2" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
       <c r="G671" s="2" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>847</v>
+        <v>1067</v>
       </c>
       <c r="B672" s="6" t="s">
-        <v>848</v>
+        <v>1069</v>
       </c>
       <c r="C672" t="s">
         <v>812</v>
@@ -17925,18 +17937,18 @@
         <v>814</v>
       </c>
       <c r="F672" s="2" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="G672" s="2" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="B673" s="6" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
       <c r="C673" t="s">
         <v>812</v>
@@ -17948,18 +17960,18 @@
         <v>814</v>
       </c>
       <c r="F673" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G673" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>849</v>
+        <v>815</v>
       </c>
       <c r="B674" s="6" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="C674" t="s">
         <v>812</v>
@@ -17971,18 +17983,18 @@
         <v>814</v>
       </c>
       <c r="F674" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G674" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>816</v>
+        <v>849</v>
       </c>
       <c r="B675" s="6" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="C675" t="s">
         <v>812</v>
@@ -17994,18 +18006,18 @@
         <v>814</v>
       </c>
       <c r="F675" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G675" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>934</v>
+        <v>816</v>
       </c>
       <c r="B676" s="6" t="s">
-        <v>936</v>
+        <v>824</v>
       </c>
       <c r="C676" t="s">
         <v>812</v>
@@ -18017,18 +18029,18 @@
         <v>814</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G676" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B677" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C677" t="s">
         <v>812</v>
@@ -18040,18 +18052,18 @@
         <v>814</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>938</v>
+        <v>831</v>
       </c>
       <c r="G677" s="2" t="s">
-        <v>938</v>
+        <v>831</v>
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>851</v>
+        <v>935</v>
       </c>
       <c r="B678" s="6" t="s">
-        <v>852</v>
+        <v>937</v>
       </c>
       <c r="C678" t="s">
         <v>812</v>
@@ -18063,18 +18075,18 @@
         <v>814</v>
       </c>
       <c r="F678" s="2" t="s">
-        <v>831</v>
+        <v>938</v>
       </c>
       <c r="G678" s="2" t="s">
-        <v>831</v>
+        <v>938</v>
       </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
       <c r="B679" s="6" t="s">
-        <v>825</v>
+        <v>852</v>
       </c>
       <c r="C679" t="s">
         <v>812</v>
@@ -18086,18 +18098,18 @@
         <v>814</v>
       </c>
       <c r="F679" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G679" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>853</v>
+        <v>817</v>
       </c>
       <c r="B680" s="6" t="s">
-        <v>854</v>
+        <v>825</v>
       </c>
       <c r="C680" t="s">
         <v>812</v>
@@ -18109,18 +18121,18 @@
         <v>814</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="G680" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>818</v>
+        <v>853</v>
       </c>
       <c r="B681" s="6" t="s">
-        <v>826</v>
+        <v>854</v>
       </c>
       <c r="C681" t="s">
         <v>812</v>
@@ -18132,18 +18144,18 @@
         <v>814</v>
       </c>
       <c r="F681" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G681" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>855</v>
+        <v>818</v>
       </c>
       <c r="B682" s="6" t="s">
-        <v>856</v>
+        <v>826</v>
       </c>
       <c r="C682" t="s">
         <v>812</v>
@@ -18155,18 +18167,18 @@
         <v>814</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="G682" s="2" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>819</v>
+        <v>855</v>
       </c>
       <c r="B683" s="6" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
       <c r="C683" t="s">
         <v>812</v>
@@ -18178,18 +18190,18 @@
         <v>814</v>
       </c>
       <c r="F683" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G683" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
       <c r="B684" s="6" t="s">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="C684" t="s">
         <v>812</v>
@@ -18201,18 +18213,18 @@
         <v>814</v>
       </c>
       <c r="F684" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="G684" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>820</v>
+        <v>857</v>
       </c>
       <c r="B685" s="6" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="C685" t="s">
         <v>812</v>
@@ -18224,18 +18236,18 @@
         <v>814</v>
       </c>
       <c r="F685" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="G685" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>859</v>
+        <v>820</v>
       </c>
       <c r="B686" s="6" t="s">
-        <v>860</v>
+        <v>828</v>
       </c>
       <c r="C686" t="s">
         <v>812</v>
@@ -18247,18 +18259,18 @@
         <v>814</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="G686" s="2" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>821</v>
+        <v>859</v>
       </c>
       <c r="B687" s="6" t="s">
-        <v>829</v>
+        <v>860</v>
       </c>
       <c r="C687" t="s">
         <v>812</v>
@@ -18270,18 +18282,18 @@
         <v>814</v>
       </c>
       <c r="F687" s="2" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G687" s="2" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>861</v>
+        <v>821</v>
       </c>
       <c r="B688" s="6" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="C688" t="s">
         <v>812</v>
@@ -18293,18 +18305,18 @@
         <v>814</v>
       </c>
       <c r="F688" s="2" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="G688" s="2" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>822</v>
+        <v>861</v>
       </c>
       <c r="B689" s="6" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="C689" t="s">
         <v>812</v>
@@ -18316,109 +18328,115 @@
         <v>814</v>
       </c>
       <c r="F689" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="G689" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>822</v>
+      </c>
+      <c r="B690" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="C690" t="s">
+        <v>812</v>
+      </c>
+      <c r="D690" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E690" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="F690" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="G689" s="2" t="s">
+      <c r="G690" s="2" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
-        <v>950</v>
-      </c>
-      <c r="B691" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="C691" t="s">
-        <v>161</v>
-      </c>
-      <c r="F691" s="2">
-        <v>1</v>
-      </c>
-      <c r="G691" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B692" s="6" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C692" t="s">
-        <v>605</v>
-      </c>
-      <c r="D692" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E692" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F692" s="2">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="G692" s="2">
-        <v>285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B693" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C693" t="s">
-        <v>161</v>
+        <v>605</v>
+      </c>
+      <c r="D693" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E693" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F693" s="2">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="G693" s="2">
-        <v>0</v>
+        <v>285</v>
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1534</v>
+        <v>954</v>
       </c>
       <c r="B694" s="6" t="s">
-        <v>1535</v>
+        <v>955</v>
       </c>
       <c r="C694" t="s">
         <v>161</v>
       </c>
       <c r="F694" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G694" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>956</v>
+        <v>1533</v>
       </c>
       <c r="B695" s="6" t="s">
-        <v>957</v>
+        <v>1534</v>
       </c>
       <c r="C695" t="s">
         <v>161</v>
       </c>
       <c r="F695" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G695" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B696" s="6" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C696" t="s">
         <v>161</v>
@@ -18432,10 +18450,10 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B697" s="6" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C697" t="s">
         <v>161</v>
@@ -18449,10 +18467,10 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>978</v>
+        <v>960</v>
       </c>
       <c r="B698" s="6" t="s">
-        <v>979</v>
+        <v>961</v>
       </c>
       <c r="C698" t="s">
         <v>161</v>
@@ -18466,78 +18484,78 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>962</v>
+        <v>978</v>
       </c>
       <c r="B699" s="6" t="s">
-        <v>1006</v>
+        <v>979</v>
       </c>
       <c r="C699" t="s">
-        <v>163</v>
-      </c>
-      <c r="F699" s="21" t="s">
-        <v>981</v>
-      </c>
-      <c r="G699" s="2" t="s">
-        <v>981</v>
+        <v>161</v>
+      </c>
+      <c r="F699" s="2">
+        <v>0</v>
+      </c>
+      <c r="G699" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>980</v>
+        <v>962</v>
       </c>
       <c r="B700" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C700" t="s">
         <v>163</v>
       </c>
-      <c r="F700" s="16" t="s">
-        <v>1008</v>
+      <c r="F700" s="21" t="s">
+        <v>981</v>
       </c>
       <c r="G700" s="2" t="s">
-        <v>1008</v>
+        <v>981</v>
       </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>963</v>
+        <v>980</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>964</v>
+        <v>1007</v>
       </c>
       <c r="C701" t="s">
         <v>163</v>
       </c>
-      <c r="F701" s="2" t="s">
-        <v>965</v>
+      <c r="F701" s="16" t="s">
+        <v>1008</v>
       </c>
       <c r="G701" s="2" t="s">
-        <v>965</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C702" t="s">
-        <v>161</v>
-      </c>
-      <c r="F702" s="2">
-        <v>1</v>
-      </c>
-      <c r="G702" s="2">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="F702" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="G702" s="2" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B703" s="6" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C703" t="s">
         <v>161</v>
@@ -18551,33 +18569,27 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B704" s="6" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C704" t="s">
-        <v>190</v>
-      </c>
-      <c r="D704" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E704" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F704" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G704" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B705" s="6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C705" t="s">
         <v>190</v>
@@ -18589,18 +18601,18 @@
         <v>181</v>
       </c>
       <c r="F705" s="2">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="G705" s="2">
-        <v>600</v>
+        <v>120</v>
       </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C706" t="s">
         <v>190</v>
@@ -18612,18 +18624,18 @@
         <v>181</v>
       </c>
       <c r="F706" s="2">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="G706" s="2">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B707" s="6" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C707" t="s">
         <v>190</v>
@@ -18643,717 +18655,740 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1532</v>
+        <v>976</v>
       </c>
       <c r="B708" s="6" t="s">
-        <v>1533</v>
+        <v>977</v>
       </c>
       <c r="C708" t="s">
-        <v>161</v>
+        <v>190</v>
+      </c>
+      <c r="D708" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E708" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F708" s="2">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G708" s="2">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1018</v>
+        <v>1531</v>
       </c>
       <c r="B709" s="6" t="s">
-        <v>1022</v>
+        <v>1532</v>
       </c>
       <c r="C709" t="s">
-        <v>163</v>
-      </c>
-      <c r="F709" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="G709" s="2" t="s">
-        <v>1556</v>
+        <v>161</v>
+      </c>
+      <c r="F709" s="2">
+        <v>1</v>
+      </c>
+      <c r="G709" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B710" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C710" t="s">
         <v>163</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="G710" s="2" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C711" t="s">
         <v>163</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="G711" s="2" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C712" t="s">
         <v>163</v>
       </c>
       <c r="F712" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="G712" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1550</v>
+        <v>1021</v>
       </c>
       <c r="B713" s="6" t="s">
-        <v>1551</v>
+        <v>1025</v>
       </c>
       <c r="C713" t="s">
         <v>163</v>
       </c>
       <c r="F713" s="2" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="G713" s="2" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>995</v>
+        <v>1549</v>
       </c>
       <c r="B714" s="6" t="s">
-        <v>996</v>
+        <v>1550</v>
       </c>
       <c r="C714" t="s">
         <v>163</v>
       </c>
       <c r="F714" s="2" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="G714" s="2" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="B715" s="6" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
       <c r="C715" t="s">
         <v>163</v>
       </c>
       <c r="F715" s="2" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="G715" s="2" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B716" s="6" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="C716" t="s">
         <v>163</v>
       </c>
       <c r="F716" s="2" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="G716" s="2" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="B717" s="6" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="C717" t="s">
         <v>163</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="G717" s="2" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B718" s="6" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C718" t="s">
         <v>163</v>
       </c>
       <c r="F718" s="2" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="G718" s="2" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1552</v>
+        <v>999</v>
       </c>
       <c r="B719" s="6" t="s">
-        <v>1553</v>
+        <v>1000</v>
       </c>
       <c r="C719" t="s">
         <v>163</v>
       </c>
       <c r="F719" s="2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="G719" s="2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B720" s="6" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C720" t="s">
         <v>163</v>
       </c>
       <c r="F720" s="2" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="G720" s="2" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1001</v>
+        <v>1553</v>
       </c>
       <c r="B721" s="6" t="s">
-        <v>1002</v>
+        <v>1554</v>
       </c>
       <c r="C721" t="s">
         <v>163</v>
       </c>
       <c r="F721" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="G721" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="C722" t="s">
         <v>163</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="G722" s="2" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B723" s="6" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="C723" t="s">
         <v>163</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="G723" s="2" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B725" s="6" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C725" t="s">
-        <v>161</v>
-      </c>
-      <c r="F725" s="2">
-        <v>0</v>
-      </c>
-      <c r="G725" s="2">
-        <v>0</v>
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B724" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C724" t="s">
+        <v>163</v>
+      </c>
+      <c r="F724" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G724" s="2" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B726" s="6" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C726" t="s">
-        <v>163</v>
-      </c>
-      <c r="F726" s="18" t="s">
-        <v>1570</v>
-      </c>
-      <c r="G726" s="18" t="s">
-        <v>1570</v>
+        <v>161</v>
+      </c>
+      <c r="F726" s="2">
+        <v>0</v>
+      </c>
+      <c r="G726" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="B727" s="6" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="C727" t="s">
         <v>163</v>
       </c>
       <c r="F727" s="18" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="G727" s="18" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B728" s="6" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C728" t="s">
         <v>163</v>
       </c>
-      <c r="F728" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="G728" s="2" t="s">
-        <v>1572</v>
+      <c r="F728" s="18" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G728" s="18" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C729" t="s">
         <v>163</v>
       </c>
       <c r="F729" s="2" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G729" s="2" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B730" s="6" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C730" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F730" s="2">
-        <v>256</v>
-      </c>
-      <c r="G730" s="2">
-        <v>256</v>
+        <v>163</v>
+      </c>
+      <c r="F730" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G730" s="2" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B731" s="6" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C731" t="s">
-        <v>169</v>
-      </c>
-      <c r="D731" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E731" s="5" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="F731" s="2">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="G731" s="2">
-        <v>3</v>
-      </c>
-      <c r="H731" s="2">
-        <v>4</v>
-      </c>
-      <c r="J731" s="2">
-        <v>4</v>
+        <v>256</v>
       </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B732" s="6" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C732" t="s">
         <v>169</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>1424</v>
+        <v>176</v>
       </c>
       <c r="E732" s="5" t="s">
-        <v>1425</v>
+        <v>1420</v>
+      </c>
+      <c r="F732" s="2">
+        <v>3</v>
+      </c>
+      <c r="G732" s="2">
+        <v>3</v>
       </c>
       <c r="H732" s="2">
-        <v>59</v>
-      </c>
-      <c r="I732" s="2">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="J732" s="2">
-        <v>56</v>
-      </c>
-      <c r="K732" s="2">
-        <v>63.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="B733" s="6" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="C733" t="s">
         <v>169</v>
       </c>
       <c r="D733" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E733" s="5" t="s">
         <v>1424</v>
       </c>
-      <c r="E733" s="5" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F733" s="2">
-        <v>90</v>
-      </c>
-      <c r="G733" s="2">
-        <v>90</v>
-      </c>
       <c r="H733" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I733" s="2">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J733" s="2">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K733" s="2">
-        <v>73</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B734" s="6" t="s">
         <v>1427</v>
-      </c>
-      <c r="B734" s="6" t="s">
-        <v>1429</v>
       </c>
       <c r="C734" t="s">
         <v>169</v>
       </c>
       <c r="D734" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E734" s="5" t="s">
         <v>1424</v>
       </c>
-      <c r="E734" s="5" t="s">
-        <v>1425</v>
-      </c>
       <c r="F734" s="2">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G734" s="2">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="H734" s="2">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I734" s="2">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="J734" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K734" s="2">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="B735" s="6" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="C735" t="s">
         <v>169</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="E735" s="5" t="s">
-        <v>1436</v>
+        <v>1424</v>
+      </c>
+      <c r="F735" s="2">
+        <v>-90</v>
+      </c>
+      <c r="G735" s="2">
+        <v>-90</v>
       </c>
       <c r="H735" s="2">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I735" s="2">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J735" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="K735" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B736" s="6" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="C736" t="s">
         <v>169</v>
       </c>
       <c r="D736" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E736" s="5" t="s">
         <v>1435</v>
       </c>
-      <c r="E736" s="5" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F736" s="2">
-        <v>180</v>
-      </c>
-      <c r="G736" s="2">
-        <v>180</v>
-      </c>
       <c r="H736" s="2">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I736" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J736" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K736" s="2">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B737" s="6" t="s">
         <v>1432</v>
-      </c>
-      <c r="B737" s="6" t="s">
-        <v>1434</v>
       </c>
       <c r="C737" t="s">
         <v>169</v>
       </c>
       <c r="D737" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E737" s="5" t="s">
         <v>1435</v>
       </c>
-      <c r="E737" s="5" t="s">
-        <v>1436</v>
-      </c>
       <c r="F737" s="2">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="G737" s="2">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="H737" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I737" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J737" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="K737" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="B738" s="6" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="C738" t="s">
-        <v>1440</v>
+        <v>169</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>174</v>
+        <v>1434</v>
       </c>
       <c r="E738" s="5" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="F738" s="2">
-        <v>50</v>
+        <v>-180</v>
       </c>
       <c r="G738" s="2">
-        <v>50</v>
+        <v>-180</v>
+      </c>
+      <c r="H738" s="2">
+        <v>15</v>
+      </c>
+      <c r="I738" s="2">
+        <v>10</v>
+      </c>
+      <c r="J738" s="2">
+        <v>-2</v>
+      </c>
+      <c r="K738" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="B739" s="6" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="C739" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D739" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E739" s="5" t="s">
-        <v>181</v>
+        <v>1438</v>
       </c>
       <c r="F739" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G739" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B740" s="6" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="C740" t="s">
-        <v>169</v>
+        <v>1439</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>1447</v>
+        <v>174</v>
       </c>
       <c r="E740" s="5" t="s">
-        <v>1448</v>
+        <v>181</v>
       </c>
       <c r="F740" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G740" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C741" t="s">
         <v>169</v>
       </c>
       <c r="D741" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E741" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="E741" s="5" t="s">
-        <v>1448</v>
-      </c>
       <c r="F741" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G741" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B742" s="6" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="C742" t="s">
         <v>169</v>
       </c>
       <c r="D742" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E742" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="E742" s="5" t="s">
-        <v>1448</v>
-      </c>
       <c r="F742" s="2">
+        <v>30</v>
+      </c>
+      <c r="G742" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B743" s="6" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C743" t="s">
+        <v>169</v>
+      </c>
+      <c r="D743" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E743" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F743" s="2">
         <v>95</v>
       </c>
-      <c r="G742" s="2">
+      <c r="G743" s="2">
         <v>95</v>
       </c>
     </row>
@@ -19363,17 +19398,17 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:I187 H583:I595 H598:I600 H604:I606 H609:I609 H614:I621 H624:I643 H602:I602 H231:I255 H648:I712 H189:I223 H450:I453 H489:I579 H714:I718 H721:I734 H257:I448 H455:I456 H458:I483 H738:I1048576">
+  <conditionalFormatting sqref="H1:I187 H584:I596 H599:I601 H605:I607 H610:I610 H615:I622 H625:I644 H603:I603 H231:I255 H649:I713 H189:I223 H451:I454 H490:I580 H715:I719 H722:I735 H257:I449 H456:I457 H459:I484 H739:I1048576">
     <cfRule type="expression" dxfId="114" priority="121">
       <formula>H1=$F1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K187 J583:K595 J598:K600 J604:K606 J609:K609 J614:K621 J624:K643 J602:K602 J231:K255 J648:K712 J189:K223 J450:K453 J489:K579 J714:K718 J721:K734 J257:K448 J455:K456 J458:K483 J738:K1048576">
+  <conditionalFormatting sqref="J1:K187 J584:K596 J599:K601 J605:K607 J610:K610 J615:K622 J625:K644 J603:K603 J231:K255 J649:K713 J189:K223 J451:K454 J490:K580 J715:K719 J722:K735 J257:K449 J456:K457 J459:K484 J739:K1048576">
     <cfRule type="expression" dxfId="113" priority="122">
       <formula>J1=$G1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A187 A738:A1279 A583:A595 A598:A600 A604:A606 A609 A614:A621 A624:A643 A602 A231:A255 A648:A712 A189:A223 A450:A453 A489:A579 A714:A718 A721:A734 A257:A448 A455:A456 A458:A483">
+  <conditionalFormatting sqref="A3:A187 A739:A1280 A584:A596 A599:A601 A605:A607 A610 A615:A622 A625:A644 A603 A231:A255 A649:A713 A189:A223 A451:A454 A490:A580 A715:A719 A722:A735 A257:A449 A456:A457 A459:A484">
     <cfRule type="expression" dxfId="112" priority="124">
       <formula>F3&lt;&gt;G3</formula>
     </cfRule>
@@ -19383,64 +19418,64 @@
       <formula>M13=$G13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H580:I580">
+  <conditionalFormatting sqref="H581:I581">
     <cfRule type="expression" dxfId="110" priority="112">
-      <formula>H580=$F580</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J580:K580">
-    <cfRule type="expression" dxfId="109" priority="113">
-      <formula>J580=$G580</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A580">
-    <cfRule type="expression" dxfId="108" priority="114">
-      <formula>F580&lt;&gt;G580</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H581:I581">
-    <cfRule type="expression" dxfId="107" priority="109">
       <formula>H581=$F581</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J581:K581">
-    <cfRule type="expression" dxfId="106" priority="110">
+    <cfRule type="expression" dxfId="109" priority="113">
       <formula>J581=$G581</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A581">
-    <cfRule type="expression" dxfId="105" priority="111">
+    <cfRule type="expression" dxfId="108" priority="114">
       <formula>F581&lt;&gt;G581</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H582:I582">
-    <cfRule type="expression" dxfId="104" priority="106">
+    <cfRule type="expression" dxfId="107" priority="109">
       <formula>H582=$F582</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J582:K582">
-    <cfRule type="expression" dxfId="103" priority="107">
+    <cfRule type="expression" dxfId="106" priority="110">
       <formula>J582=$G582</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A582">
-    <cfRule type="expression" dxfId="102" priority="108">
+    <cfRule type="expression" dxfId="105" priority="111">
       <formula>F582&lt;&gt;G582</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H735:I737">
-    <cfRule type="expression" dxfId="101" priority="103">
-      <formula>H735=$F735</formula>
+  <conditionalFormatting sqref="H583:I583">
+    <cfRule type="expression" dxfId="104" priority="106">
+      <formula>H583=$F583</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J735:K737">
-    <cfRule type="expression" dxfId="100" priority="104">
-      <formula>J735=$G735</formula>
+  <conditionalFormatting sqref="J583:K583">
+    <cfRule type="expression" dxfId="103" priority="107">
+      <formula>J583=$G583</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A735:A737">
+  <conditionalFormatting sqref="A583">
+    <cfRule type="expression" dxfId="102" priority="108">
+      <formula>F583&lt;&gt;G583</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H736:I738">
+    <cfRule type="expression" dxfId="101" priority="103">
+      <formula>H736=$F736</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J736:K738">
+    <cfRule type="expression" dxfId="100" priority="104">
+      <formula>J736=$G736</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A736:A738">
     <cfRule type="expression" dxfId="99" priority="105">
-      <formula>F735&lt;&gt;G735</formula>
+      <formula>F736&lt;&gt;G736</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225:I225">
@@ -19518,229 +19553,229 @@
       <formula>F228&lt;&gt;G228</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H596:I596">
+  <conditionalFormatting sqref="H597:I597">
     <cfRule type="expression" dxfId="83" priority="85">
-      <formula>H596=$F596</formula>
+      <formula>H597=$F597</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J596:K596">
+  <conditionalFormatting sqref="J597:K597">
     <cfRule type="expression" dxfId="82" priority="86">
-      <formula>J596=$G596</formula>
+      <formula>J597=$G597</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A596">
+  <conditionalFormatting sqref="A597">
     <cfRule type="expression" dxfId="81" priority="87">
-      <formula>F596&lt;&gt;G596</formula>
+      <formula>F597&lt;&gt;G597</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H603:I603">
+  <conditionalFormatting sqref="H604:I604">
     <cfRule type="expression" dxfId="80" priority="82">
-      <formula>H603=$F603</formula>
+      <formula>H604=$F604</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J603:K603">
+  <conditionalFormatting sqref="J604:K604">
     <cfRule type="expression" dxfId="79" priority="83">
-      <formula>J603=$G603</formula>
+      <formula>J604=$G604</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A603">
+  <conditionalFormatting sqref="A604">
     <cfRule type="expression" dxfId="78" priority="84">
-      <formula>F603&lt;&gt;G603</formula>
+      <formula>F604&lt;&gt;G604</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H612:I612">
+    <cfRule type="expression" dxfId="77" priority="79">
+      <formula>H612=$F612</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J612:K612">
+    <cfRule type="expression" dxfId="76" priority="80">
+      <formula>J612=$G612</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A612">
+    <cfRule type="expression" dxfId="75" priority="81">
+      <formula>F612&lt;&gt;G612</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H609:I609">
+    <cfRule type="expression" dxfId="74" priority="76">
+      <formula>H609=$F609</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J609:K609">
+    <cfRule type="expression" dxfId="73" priority="77">
+      <formula>J609=$G609</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A609">
+    <cfRule type="expression" dxfId="72" priority="78">
+      <formula>F609&lt;&gt;G609</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H613:I613">
+    <cfRule type="expression" dxfId="71" priority="73">
+      <formula>H613=$F613</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J613:K613">
+    <cfRule type="expression" dxfId="70" priority="74">
+      <formula>J613=$G613</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A613">
+    <cfRule type="expression" dxfId="69" priority="75">
+      <formula>F613&lt;&gt;G613</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H614:I614">
+    <cfRule type="expression" dxfId="68" priority="70">
+      <formula>H614=$F614</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J614:K614">
+    <cfRule type="expression" dxfId="67" priority="71">
+      <formula>J614=$G614</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A614">
+    <cfRule type="expression" dxfId="66" priority="72">
+      <formula>F614&lt;&gt;G614</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H598:I598">
+    <cfRule type="expression" dxfId="65" priority="67">
+      <formula>H598=$F598</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J598:K598">
+    <cfRule type="expression" dxfId="64" priority="68">
+      <formula>J598=$G598</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A598">
+    <cfRule type="expression" dxfId="63" priority="69">
+      <formula>F598&lt;&gt;G598</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H608:I608">
+    <cfRule type="expression" dxfId="62" priority="64">
+      <formula>H608=$F608</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J608:K608">
+    <cfRule type="expression" dxfId="61" priority="65">
+      <formula>J608=$G608</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A608">
+    <cfRule type="expression" dxfId="60" priority="66">
+      <formula>F608&lt;&gt;G608</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H623:I623">
+    <cfRule type="expression" dxfId="59" priority="61">
+      <formula>H623=$F623</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J623:K623">
+    <cfRule type="expression" dxfId="58" priority="62">
+      <formula>J623=$G623</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A623">
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>F623&lt;&gt;G623</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H624:I624">
+    <cfRule type="expression" dxfId="56" priority="58">
+      <formula>H624=$F624</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J624:K624">
+    <cfRule type="expression" dxfId="55" priority="59">
+      <formula>J624=$G624</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A624">
+    <cfRule type="expression" dxfId="54" priority="60">
+      <formula>F624&lt;&gt;G624</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H602:I602">
+    <cfRule type="expression" dxfId="53" priority="55">
+      <formula>H602=$F602</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J602:K602">
+    <cfRule type="expression" dxfId="52" priority="56">
+      <formula>J602=$G602</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A602">
+    <cfRule type="expression" dxfId="51" priority="57">
+      <formula>F602&lt;&gt;G602</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H611:I611">
-    <cfRule type="expression" dxfId="77" priority="79">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>H611=$F611</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J611:K611">
-    <cfRule type="expression" dxfId="76" priority="80">
+    <cfRule type="expression" dxfId="49" priority="53">
       <formula>J611=$G611</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A611">
-    <cfRule type="expression" dxfId="75" priority="81">
+    <cfRule type="expression" dxfId="48" priority="54">
       <formula>F611&lt;&gt;G611</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H608:I608">
-    <cfRule type="expression" dxfId="74" priority="76">
-      <formula>H608=$F608</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J608:K608">
-    <cfRule type="expression" dxfId="73" priority="77">
-      <formula>J608=$G608</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A608">
-    <cfRule type="expression" dxfId="72" priority="78">
-      <formula>F608&lt;&gt;G608</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H612:I612">
-    <cfRule type="expression" dxfId="71" priority="73">
-      <formula>H612=$F612</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J612:K612">
-    <cfRule type="expression" dxfId="70" priority="74">
-      <formula>J612=$G612</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A612">
-    <cfRule type="expression" dxfId="69" priority="75">
-      <formula>F612&lt;&gt;G612</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H613:I613">
-    <cfRule type="expression" dxfId="68" priority="70">
-      <formula>H613=$F613</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J613:K613">
-    <cfRule type="expression" dxfId="67" priority="71">
-      <formula>J613=$G613</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A613">
-    <cfRule type="expression" dxfId="66" priority="72">
-      <formula>F613&lt;&gt;G613</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H597:I597">
-    <cfRule type="expression" dxfId="65" priority="67">
-      <formula>H597=$F597</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J597:K597">
-    <cfRule type="expression" dxfId="64" priority="68">
-      <formula>J597=$G597</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A597">
-    <cfRule type="expression" dxfId="63" priority="69">
-      <formula>F597&lt;&gt;G597</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H607:I607">
-    <cfRule type="expression" dxfId="62" priority="64">
-      <formula>H607=$F607</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J607:K607">
-    <cfRule type="expression" dxfId="61" priority="65">
-      <formula>J607=$G607</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A607">
-    <cfRule type="expression" dxfId="60" priority="66">
-      <formula>F607&lt;&gt;G607</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H622:I622">
-    <cfRule type="expression" dxfId="59" priority="61">
-      <formula>H622=$F622</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J622:K622">
-    <cfRule type="expression" dxfId="58" priority="62">
-      <formula>J622=$G622</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A622">
-    <cfRule type="expression" dxfId="57" priority="63">
-      <formula>F622&lt;&gt;G622</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H623:I623">
-    <cfRule type="expression" dxfId="56" priority="58">
-      <formula>H623=$F623</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J623:K623">
-    <cfRule type="expression" dxfId="55" priority="59">
-      <formula>J623=$G623</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A623">
-    <cfRule type="expression" dxfId="54" priority="60">
-      <formula>F623&lt;&gt;G623</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H601:I601">
-    <cfRule type="expression" dxfId="53" priority="55">
-      <formula>H601=$F601</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J601:K601">
-    <cfRule type="expression" dxfId="52" priority="56">
-      <formula>J601=$G601</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A601">
-    <cfRule type="expression" dxfId="51" priority="57">
-      <formula>F601&lt;&gt;G601</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H610:I610">
-    <cfRule type="expression" dxfId="50" priority="52">
-      <formula>H610=$F610</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J610:K610">
-    <cfRule type="expression" dxfId="49" priority="53">
-      <formula>J610=$G610</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A610">
-    <cfRule type="expression" dxfId="48" priority="54">
-      <formula>F610&lt;&gt;G610</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H644:I644">
+  <conditionalFormatting sqref="H645:I645">
     <cfRule type="expression" dxfId="47" priority="46">
-      <formula>H644=$F644</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J644:K644">
-    <cfRule type="expression" dxfId="46" priority="47">
-      <formula>J644=$G644</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A644">
-    <cfRule type="expression" dxfId="45" priority="48">
-      <formula>F644&lt;&gt;G644</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H645:I645">
-    <cfRule type="expression" dxfId="44" priority="43">
       <formula>H645=$F645</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J645:K645">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>J645=$G645</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A645">
-    <cfRule type="expression" dxfId="42" priority="45">
+    <cfRule type="expression" dxfId="45" priority="48">
       <formula>F645&lt;&gt;G645</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H646:I647">
-    <cfRule type="expression" dxfId="41" priority="40">
+  <conditionalFormatting sqref="H646:I646">
+    <cfRule type="expression" dxfId="44" priority="43">
       <formula>H646=$F646</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J646:K647">
-    <cfRule type="expression" dxfId="40" priority="41">
+  <conditionalFormatting sqref="J646:K646">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>J646=$G646</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A646:A647">
+  <conditionalFormatting sqref="A646">
+    <cfRule type="expression" dxfId="42" priority="45">
+      <formula>F646&lt;&gt;G646</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H647:I648">
+    <cfRule type="expression" dxfId="41" priority="40">
+      <formula>H647=$F647</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J647:K648">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>J647=$G647</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A647:A648">
     <cfRule type="expression" dxfId="39" priority="42">
-      <formula>F646&lt;&gt;G646</formula>
+      <formula>F647&lt;&gt;G647</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188:I188">
@@ -19758,139 +19793,139 @@
       <formula>F188&lt;&gt;G188</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H449:I449">
+  <conditionalFormatting sqref="H450:I450">
     <cfRule type="expression" dxfId="35" priority="34">
-      <formula>H449=$F449</formula>
+      <formula>H450=$F450</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J449:K449">
+  <conditionalFormatting sqref="J450:K450">
     <cfRule type="expression" dxfId="34" priority="35">
-      <formula>J449=$G449</formula>
+      <formula>J450=$G450</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A449">
+  <conditionalFormatting sqref="A450">
     <cfRule type="expression" dxfId="33" priority="36">
-      <formula>F449&lt;&gt;G449</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H484:I484">
-    <cfRule type="expression" dxfId="32" priority="31">
-      <formula>H484=$F484</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J484:K484">
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>J484=$G484</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A484">
-    <cfRule type="expression" dxfId="30" priority="33">
-      <formula>F484&lt;&gt;G484</formula>
+      <formula>F450&lt;&gt;G450</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H485:I485">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>H485=$F485</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J485:K485">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>J485=$G485</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A485">
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>F485&lt;&gt;G485</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H486:I486">
-    <cfRule type="expression" dxfId="26" priority="25">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>H486=$F486</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J486:K486">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>J486=$G486</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A486">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>F486&lt;&gt;G486</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H487:I487">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="26" priority="25">
       <formula>H487=$F487</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J487:K487">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>J487=$G487</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A487">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>F487&lt;&gt;G487</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H488:I488">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>H488=$F488</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J488:K488">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>J488=$G488</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A488">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>F488&lt;&gt;G488</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H713:I713">
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>H713=$F713</formula>
+  <conditionalFormatting sqref="H489:I489">
+    <cfRule type="expression" dxfId="20" priority="19">
+      <formula>H489=$F489</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J713:K713">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>J713=$G713</formula>
+  <conditionalFormatting sqref="J489:K489">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>J489=$G489</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A713">
+  <conditionalFormatting sqref="A489">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>F489&lt;&gt;G489</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H714:I714">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>H714=$F714</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J714:K714">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>J714=$G714</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A714">
     <cfRule type="expression" dxfId="15" priority="18">
-      <formula>F713&lt;&gt;G713</formula>
+      <formula>F714&lt;&gt;G714</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H721:I721">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>H721=$F721</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J721:K721">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>J721=$G721</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A721">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>F721&lt;&gt;G721</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H720:I720">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>H720=$F720</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J720:K720">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>J720=$G720</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A720">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>F720&lt;&gt;G720</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H719:I719">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>H719=$F719</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J719:K719">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>J719=$G719</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A719">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>F719&lt;&gt;G719</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H256:I256">
@@ -19908,38 +19943,38 @@
       <formula>F256&lt;&gt;G256</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H454:I454">
+  <conditionalFormatting sqref="H455:I455">
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>H454=$F454</formula>
+      <formula>H455=$F455</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J454:K454">
+  <conditionalFormatting sqref="J455:K455">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>J454=$G454</formula>
+      <formula>J455=$G455</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A454">
+  <conditionalFormatting sqref="A455">
     <cfRule type="expression" dxfId="3" priority="6">
-      <formula>F454&lt;&gt;G454</formula>
+      <formula>F455&lt;&gt;G455</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H457:I457">
+  <conditionalFormatting sqref="H458:I458">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>H457=$F457</formula>
+      <formula>H458=$F458</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J457:K457">
+  <conditionalFormatting sqref="J458:K458">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>J457=$G457</formula>
+      <formula>J458=$G458</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A457">
+  <conditionalFormatting sqref="A458">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>F457&lt;&gt;G457</formula>
+      <formula>F458&lt;&gt;G458</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F699" r:id="rId1" xr:uid="{56B8085B-D5EB-47D5-B99C-37E03974F7A8}"/>
+    <hyperlink ref="F700" r:id="rId1" xr:uid="{56B8085B-D5EB-47D5-B99C-37E03974F7A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/UK-TopSky/Data/Plugin/TopSky/TopSky_Developer_Guide_Settings.xlsx
+++ b/UK-TopSky/Data/Plugin/TopSky/TopSky_Developer_Guide_Settings.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juha\Documents\Office Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A072E26-689E-4794-83B1-D14985265903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286C04B-512D-4126-BC62-AB3FA033D8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="210" windowWidth="28530" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TopSky 2.3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5914,8 +5912,8 @@
   <dimension ref="A1:M743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A267" sqref="A267"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19393,6 +19391,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -19979,28 +19978,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>